--- a/Resources/312-18-PurchaseInvoices.xlsx
+++ b/Resources/312-18-PurchaseInvoices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\GitHub\SAF-T-AO_ASSOFT\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7CAB6C-D180-4424-84CB-2D11F444E7D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B2921-1159-49AE-A1F1-F201930B1A45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{15523891-F064-48EC-AF1C-E7122FCB4C0E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
   <si>
     <t>Índice do campo</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Chave do documento (Hash)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O campo deve ser preenchido com “0” (zero), caso não haja obrigatoriedade de validação. </t>
   </si>
   <si>
     <t>Texto 172</t>
@@ -304,15 +301,6 @@
     <t>4.5.2.8.4.4</t>
   </si>
   <si>
-    <t>4.5.2.8.4.4.1</t>
-  </si>
-  <si>
-    <t>4.5.2.8.4.4.2</t>
-  </si>
-  <si>
-    <t>4.5.2.8.4.4.3</t>
-  </si>
-  <si>
     <t>4.5.2.8.5.1</t>
   </si>
   <si>
@@ -323,6 +311,27 @@
   </si>
   <si>
     <t>Percentagem de imposto deduzido.</t>
+  </si>
+  <si>
+    <t>Valor líquido do documento (NetTotal)</t>
+  </si>
+  <si>
+    <t>Valor líquido do documento</t>
+  </si>
+  <si>
+    <t>4.5.2.9</t>
+  </si>
+  <si>
+    <t>4.5.2.9.1</t>
+  </si>
+  <si>
+    <t>4.5.2.9.2</t>
+  </si>
+  <si>
+    <t>4.5.2.9.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preencher com os 4 valores correspondentes ao Hash constantes no documento impresso. O campo deve ser preenchido com “0” (zero), caso não haja obrigatoriedade de validação. </t>
   </si>
 </sst>
 </file>
@@ -344,12 +353,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -364,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -375,31 +408,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,14 +475,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99DE1CBF-96F4-42F1-B2E0-EFB415D53C41}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:E27" xr:uid="{7F73F027-A1CA-4E90-8EB4-D0AD7019757C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99DE1CBF-96F4-42F1-B2E0-EFB415D53C41}" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E28" xr:uid="{7F73F027-A1CA-4E90-8EB4-D0AD7019757C}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E607C5E4-3611-4E04-B360-51AE475EB409}" name="Índice do campo" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E3DFA7BB-A44D-4C56-8C5A-8B45D73D3D50}" name="Obrigatório" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D420EACD-8207-49E5-B662-F0DCC05470BF}" name="Nome do campo" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{79D35BA1-DBD5-4D73-A7A0-0B8303CBF2F8}" name="Notas técnicas" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{0330FB70-70EC-4E95-98E6-0BAD7BC559D5}" name="Formato" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E607C5E4-3611-4E04-B360-51AE475EB409}" name="Índice do campo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E3DFA7BB-A44D-4C56-8C5A-8B45D73D3D50}" name="Obrigatório" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D420EACD-8207-49E5-B662-F0DCC05470BF}" name="Nome do campo" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{79D35BA1-DBD5-4D73-A7A0-0B8303CBF2F8}" name="Notas técnicas" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{0330FB70-70EC-4E95-98E6-0BAD7BC559D5}" name="Formato" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -725,18 +791,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC80850-7232-431F-8E81-839D9FD7BFD2}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -748,10 +814,10 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -762,10 +828,10 @@
       <c r="A2" s="3">
         <v>4.5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="8" t="str">
         <f>"Devem ser exportados os documentos indicados no campo " &amp; A10 &amp; " - " &amp; C10</f>
         <v>Devem ser exportados os documentos indicados no campo 4.5.2.6 - Tipo de documento (PurchaseType)</v>
       </c>
@@ -780,10 +846,10 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -791,382 +857,427 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="3" t="s">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>58</v>
-      </c>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="E32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Resources/312-18-PurchaseInvoices.xlsx
+++ b/Resources/312-18-PurchaseInvoices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\GitHub\SAF-T-AO_ASSOFT\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B2921-1159-49AE-A1F1-F201930B1A45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12B4609-B687-4FA9-AAAA-3925179A166A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{15523891-F064-48EC-AF1C-E7122FCB4C0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{15523891-F064-48EC-AF1C-E7122FCB4C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
   <si>
     <t>Índice do campo</t>
   </si>
@@ -441,13 +441,13 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -485,10 +485,10 @@
   </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E607C5E4-3611-4E04-B360-51AE475EB409}" name="Índice do campo" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E3DFA7BB-A44D-4C56-8C5A-8B45D73D3D50}" name="Obrigatório" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D420EACD-8207-49E5-B662-F0DCC05470BF}" name="Nome do campo" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E3DFA7BB-A44D-4C56-8C5A-8B45D73D3D50}" name="Obrigatório" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D420EACD-8207-49E5-B662-F0DCC05470BF}" name="Nome do campo" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{79D35BA1-DBD5-4D73-A7A0-0B8303CBF2F8}" name="Notas técnicas" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{0330FB70-70EC-4E95-98E6-0BAD7BC559D5}" name="Formato" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{0330FB70-70EC-4E95-98E6-0BAD7BC559D5}" name="Formato" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -794,7 +794,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,7 +890,9 @@
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="10" t="s">
         <v>42</v>
       </c>
